--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
@@ -546,34 +546,34 @@
         <v>0.02647771943467731</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.444123</v>
+        <v>0.3622736666666667</v>
       </c>
       <c r="N2">
-        <v>1.332369</v>
+        <v>1.086821</v>
       </c>
       <c r="O2">
-        <v>0.02960111678165545</v>
+        <v>0.02355627613074877</v>
       </c>
       <c r="P2">
-        <v>0.02960111678165544</v>
+        <v>0.02355627613074877</v>
       </c>
       <c r="Q2">
-        <v>0.071015415741</v>
+        <v>0.05792768005788889</v>
       </c>
       <c r="R2">
-        <v>0.639138741669</v>
+        <v>0.521349120521</v>
       </c>
       <c r="S2">
-        <v>0.0007837700650977909</v>
+        <v>0.0006237164703157517</v>
       </c>
       <c r="T2">
-        <v>0.000783770065097791</v>
+        <v>0.0006237164703157518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>37.820412</v>
       </c>
       <c r="O3">
-        <v>0.8402525369040582</v>
+        <v>0.8197376278620713</v>
       </c>
       <c r="P3">
-        <v>0.8402525369040581</v>
+        <v>0.8197376278620713</v>
       </c>
       <c r="Q3">
         <v>2.015832161868</v>
@@ -632,10 +632,10 @@
         <v>18.142489456812</v>
       </c>
       <c r="S3">
-        <v>0.02224797092642149</v>
+        <v>0.02170478292057984</v>
       </c>
       <c r="T3">
-        <v>0.02224797092642149</v>
+        <v>0.02170478292057984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.952662333333333</v>
+        <v>2.409994333333333</v>
       </c>
       <c r="N4">
-        <v>5.857987</v>
+        <v>7.229983</v>
       </c>
       <c r="O4">
-        <v>0.1301463463142864</v>
+        <v>0.15670609600718</v>
       </c>
       <c r="P4">
-        <v>0.1301463463142864</v>
+        <v>0.15670609600718</v>
       </c>
       <c r="Q4">
-        <v>0.3122313579874444</v>
+        <v>0.3853588972314444</v>
       </c>
       <c r="R4">
-        <v>2.810082221887</v>
+        <v>3.468230075083</v>
       </c>
       <c r="S4">
-        <v>0.003445978443158023</v>
+        <v>0.004149220043781716</v>
       </c>
       <c r="T4">
-        <v>0.003445978443158024</v>
+        <v>0.004149220043781718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,34 +732,34 @@
         <v>0.9735222805653228</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.444123</v>
+        <v>0.3622736666666667</v>
       </c>
       <c r="N5">
-        <v>1.332369</v>
+        <v>1.086821</v>
       </c>
       <c r="O5">
-        <v>0.02960111678165545</v>
+        <v>0.02355627613074877</v>
       </c>
       <c r="P5">
-        <v>0.02960111678165544</v>
+        <v>0.02355627613074877</v>
       </c>
       <c r="Q5">
-        <v>2.611066623696</v>
+        <v>2.129861951930667</v>
       </c>
       <c r="R5">
-        <v>23.499599613264</v>
+        <v>19.168757567376</v>
       </c>
       <c r="S5">
-        <v>0.02881734671655765</v>
+        <v>0.02293255966043302</v>
       </c>
       <c r="T5">
-        <v>0.02881734671655765</v>
+        <v>0.02293255966043302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,22 +806,22 @@
         <v>37.820412</v>
       </c>
       <c r="O6">
-        <v>0.8402525369040582</v>
+        <v>0.8197376278620713</v>
       </c>
       <c r="P6">
-        <v>0.8402525369040581</v>
+        <v>0.8197376278620713</v>
       </c>
       <c r="Q6">
-        <v>74.11731695020802</v>
+        <v>74.11731695020799</v>
       </c>
       <c r="R6">
-        <v>667.0558525518721</v>
+        <v>667.0558525518719</v>
       </c>
       <c r="S6">
-        <v>0.8180045659776367</v>
+        <v>0.7980328449414914</v>
       </c>
       <c r="T6">
-        <v>0.8180045659776367</v>
+        <v>0.7980328449414915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.952662333333333</v>
+        <v>2.409994333333333</v>
       </c>
       <c r="N7">
-        <v>5.857987</v>
+        <v>7.229983</v>
       </c>
       <c r="O7">
-        <v>0.1301463463142864</v>
+        <v>0.15670609600718</v>
       </c>
       <c r="P7">
-        <v>0.1301463463142864</v>
+        <v>0.15670609600718</v>
       </c>
       <c r="Q7">
-        <v>11.47999866234133</v>
+        <v>14.16872300480533</v>
       </c>
       <c r="R7">
-        <v>103.319987961072</v>
+        <v>127.518507043248</v>
       </c>
       <c r="S7">
-        <v>0.1267003678711283</v>
+        <v>0.1525568759633982</v>
       </c>
       <c r="T7">
-        <v>0.1267003678711283</v>
+        <v>0.1525568759633983</v>
       </c>
     </row>
   </sheetData>
